--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2177,28 +2177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.4351594919832</v>
+        <v>260.3029028012701</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.2949130777069</v>
+        <v>356.1579153662877</v>
       </c>
       <c r="AC2" t="n">
-        <v>261.6850126016163</v>
+        <v>322.1667037945022</v>
       </c>
       <c r="AD2" t="n">
-        <v>211435.1594919832</v>
+        <v>260302.9028012701</v>
       </c>
       <c r="AE2" t="n">
-        <v>289294.9130777069</v>
+        <v>356157.9153662878</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.787702786913696e-06</v>
+        <v>3.307718202175236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.502604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>261685.0126016163</v>
+        <v>322166.7037945022</v>
       </c>
     </row>
     <row r="3">
@@ -2283,28 +2283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.3570437018429</v>
+        <v>203.0541053019834</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.1981169449267</v>
+        <v>277.8275849889394</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.0416650821821</v>
+        <v>251.3121102111411</v>
       </c>
       <c r="AD3" t="n">
-        <v>154357.043701843</v>
+        <v>203054.1053019834</v>
       </c>
       <c r="AE3" t="n">
-        <v>211198.1169449267</v>
+        <v>277827.5849889394</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.238520680167964e-06</v>
+        <v>4.141849335325067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.790364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>191041.6650821821</v>
+        <v>251312.1102111411</v>
       </c>
     </row>
     <row r="4">
@@ -2389,28 +2389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.366358667907</v>
+        <v>180.8679091629205</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.5284209235859</v>
+        <v>247.4714526455943</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.6765856635748</v>
+        <v>223.8531245335359</v>
       </c>
       <c r="AD4" t="n">
-        <v>144366.358667907</v>
+        <v>180867.9091629205</v>
       </c>
       <c r="AE4" t="n">
-        <v>197528.4209235859</v>
+        <v>247471.4526455943</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.408400178309445e-06</v>
+        <v>4.456170883790661e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.30859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>178676.5856635748</v>
+        <v>223853.1245335359</v>
       </c>
     </row>
     <row r="5">
@@ -2495,28 +2495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.319089518307</v>
+        <v>174.8206400133204</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.2542804864212</v>
+        <v>239.1973122084297</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.1921175769014</v>
+        <v>216.3686564468626</v>
       </c>
       <c r="AD5" t="n">
-        <v>138319.089518307</v>
+        <v>174820.6400133204</v>
       </c>
       <c r="AE5" t="n">
-        <v>189254.2804864212</v>
+        <v>239197.3122084297</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.494040172632212e-06</v>
+        <v>4.614627295074017e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH5" t="n">
-        <v>171192.1175769015</v>
+        <v>216368.6564468626</v>
       </c>
     </row>
     <row r="6">
@@ -2601,28 +2601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>137.502166790686</v>
+        <v>174.0037172856994</v>
       </c>
       <c r="AB6" t="n">
-        <v>188.1365307704036</v>
+        <v>238.079562492412</v>
       </c>
       <c r="AC6" t="n">
-        <v>170.1810443250086</v>
+        <v>215.3575831949697</v>
       </c>
       <c r="AD6" t="n">
-        <v>137502.166790686</v>
+        <v>174003.7172856994</v>
       </c>
       <c r="AE6" t="n">
-        <v>188136.5307704036</v>
+        <v>238079.562492412</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.505874317391449e-06</v>
+        <v>4.636523561228463e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.061197916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>170181.0443250086</v>
+        <v>215357.5831949697</v>
       </c>
     </row>
   </sheetData>
@@ -2898,28 +2898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.198315957671</v>
+        <v>218.2531644885393</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.2410886298339</v>
+        <v>298.6236083031421</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.8854478905029</v>
+        <v>270.123390247645</v>
       </c>
       <c r="AD2" t="n">
-        <v>171198.315957671</v>
+        <v>218253.1644885393</v>
       </c>
       <c r="AE2" t="n">
-        <v>234241.0886298339</v>
+        <v>298623.6083031421</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.071863186221179e-06</v>
+        <v>3.949290988552722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.584635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>211885.4478905029</v>
+        <v>270123.390247645</v>
       </c>
     </row>
     <row r="3">
@@ -3004,28 +3004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.1462030098939</v>
+        <v>172.3520880620245</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.6494854215104</v>
+        <v>235.8197305238424</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.7404819006412</v>
+        <v>213.3134264177856</v>
       </c>
       <c r="AD3" t="n">
-        <v>137146.2030098939</v>
+        <v>172352.0880620245</v>
       </c>
       <c r="AE3" t="n">
-        <v>187649.4854215104</v>
+        <v>235819.7305238424</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.477837683330133e-06</v>
+        <v>4.723141035060309e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.341145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>169740.4819006412</v>
+        <v>213313.4264177856</v>
       </c>
     </row>
     <row r="4">
@@ -3110,28 +3110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.8693245458025</v>
+        <v>163.7534913675276</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.9057657542111</v>
+        <v>224.0547511831242</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.644583899825</v>
+        <v>202.6712801930896</v>
       </c>
       <c r="AD4" t="n">
-        <v>116869.3245458025</v>
+        <v>163753.4913675276</v>
       </c>
       <c r="AE4" t="n">
-        <v>159905.7657542111</v>
+        <v>224054.7511831241</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.632568223832969e-06</v>
+        <v>5.018081325194171e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.970052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>144644.583899825</v>
+        <v>202671.2801930896</v>
       </c>
     </row>
     <row r="5">
@@ -3216,28 +3216,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.0658487941502</v>
+        <v>163.9500156158753</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.1746589008382</v>
+        <v>224.3236443297512</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.887814261932</v>
+        <v>202.9145105551965</v>
       </c>
       <c r="AD5" t="n">
-        <v>117065.8487941502</v>
+        <v>163950.0156158753</v>
       </c>
       <c r="AE5" t="n">
-        <v>160174.6589008382</v>
+        <v>224323.6443297512</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.630491627939829e-06</v>
+        <v>5.01412301293582e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.9765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>144887.814261932</v>
+        <v>202914.5105551965</v>
       </c>
     </row>
   </sheetData>
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.7618370222843</v>
+        <v>139.066913149836</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.4444995305473</v>
+        <v>190.2774857707288</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.3726034350467</v>
+        <v>172.1176695849527</v>
       </c>
       <c r="AD2" t="n">
-        <v>107761.8370222843</v>
+        <v>139066.9131498359</v>
       </c>
       <c r="AE2" t="n">
-        <v>147444.4995305473</v>
+        <v>190277.4857707288</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.913555584384608e-06</v>
+        <v>6.205110908693626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.022135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>133372.6034350467</v>
+        <v>172117.6695849527</v>
       </c>
     </row>
     <row r="3">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.9906442595396</v>
+        <v>139.2957203870913</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.7575636868228</v>
+        <v>190.5905499270043</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.6557891876356</v>
+        <v>172.4008553375416</v>
       </c>
       <c r="AD3" t="n">
-        <v>107990.6442595396</v>
+        <v>139295.7203870912</v>
       </c>
       <c r="AE3" t="n">
-        <v>147757.5636868228</v>
+        <v>190590.5499270043</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.916438585545475e-06</v>
+        <v>6.211250946676409e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>133655.7891876356</v>
+        <v>172400.8553375416</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.6115327830172</v>
+        <v>156.4416695755972</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.1307525095984</v>
+        <v>214.0503940325987</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.9891508666313</v>
+        <v>193.6217248478036</v>
       </c>
       <c r="AD2" t="n">
-        <v>123611.5327830172</v>
+        <v>156441.6695755972</v>
       </c>
       <c r="AE2" t="n">
-        <v>169130.7525095984</v>
+        <v>214050.3940325987</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.613134980243896e-06</v>
+        <v>5.305567453395524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.419270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>152989.1508666313</v>
+        <v>193621.7248478036</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.5128900021938</v>
+        <v>148.2293924778513</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.9991468842352</v>
+        <v>202.8139942073727</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.3515090062056</v>
+        <v>183.4577112515074</v>
       </c>
       <c r="AD3" t="n">
-        <v>104512.8900021938</v>
+        <v>148229.3924778514</v>
       </c>
       <c r="AE3" t="n">
-        <v>142999.1468842352</v>
+        <v>202813.9942073727</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.818804944904185e-06</v>
+        <v>5.723148588274667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.950520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>129351.5090062056</v>
+        <v>183457.7112515074</v>
       </c>
     </row>
   </sheetData>
@@ -4319,28 +4319,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.0878145116906</v>
+        <v>132.14202805665</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.6810516113504</v>
+        <v>180.8025524818677</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.3500880891879</v>
+        <v>163.5470106310251</v>
       </c>
       <c r="AD2" t="n">
-        <v>102087.8145116906</v>
+        <v>132142.02805665</v>
       </c>
       <c r="AE2" t="n">
-        <v>139681.0516113504</v>
+        <v>180802.5524818677</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.944428578758922e-06</v>
+        <v>6.556667327207381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.184895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>126350.0880891879</v>
+        <v>163547.0106310251</v>
       </c>
     </row>
   </sheetData>
@@ -4616,28 +4616,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.4817563929519</v>
+        <v>224.9906777033186</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.8383690392086</v>
+        <v>307.8421711217036</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.6622159239685</v>
+        <v>278.46214636914</v>
       </c>
       <c r="AD2" t="n">
-        <v>177481.7563929519</v>
+        <v>224990.6777033186</v>
       </c>
       <c r="AE2" t="n">
-        <v>242838.3690392086</v>
+        <v>307842.1711217036</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.999673507688995e-06</v>
+        <v>3.780910017445925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.79296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>219662.2159239685</v>
+        <v>278462.1463691401</v>
       </c>
     </row>
     <row r="3">
@@ -4722,28 +4722,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.3379740950681</v>
+        <v>176.8844137318226</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.3848515481317</v>
+        <v>242.0210584573536</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.9284727337764</v>
+        <v>218.9229083169429</v>
       </c>
       <c r="AD3" t="n">
-        <v>141337.9740950681</v>
+        <v>176884.4137318226</v>
       </c>
       <c r="AE3" t="n">
-        <v>193384.8515481317</v>
+        <v>242021.0584573536</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.416861420488014e-06</v>
+        <v>4.569713765954897e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.4453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>174928.4727337764</v>
+        <v>218922.9083169429</v>
       </c>
     </row>
     <row r="4">
@@ -4828,28 +4828,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.5097640363985</v>
+        <v>168.056203673153</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.3057050727257</v>
+        <v>229.9419119819477</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.0021430447908</v>
+        <v>207.9965786279573</v>
       </c>
       <c r="AD4" t="n">
-        <v>132509.7640363984</v>
+        <v>168056.203673153</v>
       </c>
       <c r="AE4" t="n">
-        <v>181305.7050727257</v>
+        <v>229941.9119819477</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.570082379857758e-06</v>
+        <v>4.859418389202743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.061197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>164002.1430447908</v>
+        <v>207996.5786279573</v>
       </c>
     </row>
     <row r="5">
@@ -4934,28 +4934,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>131.2033368188443</v>
+        <v>166.7497764555988</v>
       </c>
       <c r="AB5" t="n">
-        <v>179.518193718168</v>
+        <v>228.1544006273899</v>
       </c>
       <c r="AC5" t="n">
-        <v>162.3852292651235</v>
+        <v>206.37966484829</v>
       </c>
       <c r="AD5" t="n">
-        <v>131203.3368188443</v>
+        <v>166749.7764555988</v>
       </c>
       <c r="AE5" t="n">
-        <v>179518.193718168</v>
+        <v>228154.4006273899</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.593844430873555e-06</v>
+        <v>4.904346811955376e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.009114583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>162385.2292651235</v>
+        <v>206379.66484829</v>
       </c>
     </row>
   </sheetData>
@@ -5231,28 +5231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.77753335722915</v>
+        <v>128.0910489656045</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.151778896521</v>
+        <v>175.2598241729177</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.2530828053862</v>
+        <v>158.5332725326114</v>
       </c>
       <c r="AD2" t="n">
-        <v>98777.53335722914</v>
+        <v>128091.0489656045</v>
       </c>
       <c r="AE2" t="n">
-        <v>135151.778896521</v>
+        <v>175259.8241729177</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.940391310790717e-06</v>
+        <v>6.741043345768922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.341145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>122253.0828053862</v>
+        <v>158533.2725326114</v>
       </c>
     </row>
   </sheetData>
@@ -5528,28 +5528,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.8784773087121</v>
+        <v>187.0644388172337</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.1750771761006</v>
+        <v>255.9498178902163</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.211701389538</v>
+        <v>231.5223264986742</v>
       </c>
       <c r="AD2" t="n">
-        <v>152878.4773087121</v>
+        <v>187064.4388172337</v>
       </c>
       <c r="AE2" t="n">
-        <v>209175.0771761006</v>
+        <v>255949.8178902163</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.311148039463741e-06</v>
+        <v>4.529818217435145e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.005208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>189211.7013895379</v>
+        <v>231522.3264986742</v>
       </c>
     </row>
     <row r="3">
@@ -5634,28 +5634,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.9230222045729</v>
+        <v>158.0236428585229</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.5569460781141</v>
+        <v>216.2149196700321</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.3746691191344</v>
+        <v>195.5796711963318</v>
       </c>
       <c r="AD3" t="n">
-        <v>123923.0222045729</v>
+        <v>158023.6428585229</v>
       </c>
       <c r="AE3" t="n">
-        <v>169556.9460781141</v>
+        <v>216214.9196700321</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.696364257714474e-06</v>
+        <v>5.2848366815438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.009114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>153374.6691191344</v>
+        <v>195579.6711963319</v>
       </c>
     </row>
     <row r="4">
@@ -5740,28 +5740,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.7720027132066</v>
+        <v>144.9578747131771</v>
       </c>
       <c r="AB4" t="n">
-        <v>151.5631410280029</v>
+        <v>198.3377592725702</v>
       </c>
       <c r="AC4" t="n">
-        <v>137.0981675685362</v>
+        <v>179.4086818964458</v>
       </c>
       <c r="AD4" t="n">
-        <v>110772.0027132066</v>
+        <v>144957.8747131771</v>
       </c>
       <c r="AE4" t="n">
-        <v>151563.141028003</v>
+        <v>198337.7592725702</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.73345786281728e-06</v>
+        <v>5.357539634914117e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.924479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>137098.1675685362</v>
+        <v>179408.6818964458</v>
       </c>
     </row>
   </sheetData>
@@ -6037,28 +6037,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.837763939427</v>
+        <v>211.2506808028524</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.538300750726</v>
+        <v>289.042501196613</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.0132418721348</v>
+        <v>261.4566905561917</v>
       </c>
       <c r="AD2" t="n">
-        <v>164837.763939427</v>
+        <v>211250.6808028524</v>
       </c>
       <c r="AE2" t="n">
-        <v>225538.300750726</v>
+        <v>289042.501196613</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.14921576842865e-06</v>
+        <v>4.132303780202747e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.3828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>204013.2418721348</v>
+        <v>261456.6905561917</v>
       </c>
     </row>
     <row r="3">
@@ -6143,28 +6143,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.671692670221</v>
+        <v>167.5240731222137</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.5272629733088</v>
+        <v>229.21382748621</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.2025557703008</v>
+        <v>207.3379814946195</v>
       </c>
       <c r="AD3" t="n">
-        <v>132671.692670221</v>
+        <v>167524.0731222137</v>
       </c>
       <c r="AE3" t="n">
-        <v>181527.2629733088</v>
+        <v>229213.82748621</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.550149203373806e-06</v>
+        <v>4.903179730943076e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.223958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>164202.5557703008</v>
+        <v>207337.9814946195</v>
       </c>
     </row>
     <row r="4">
@@ -6249,28 +6249,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.8279260102582</v>
+        <v>161.2407533651326</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.1126342177333</v>
+        <v>220.616712194072</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.1180249170031</v>
+        <v>199.5613628198334</v>
       </c>
       <c r="AD4" t="n">
-        <v>114827.9260102581</v>
+        <v>161240.7533651326</v>
       </c>
       <c r="AE4" t="n">
-        <v>157112.6342177333</v>
+        <v>220616.712194072</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.661107921507948e-06</v>
+        <v>5.116520400189792e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.963541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>142118.0249170031</v>
+        <v>199561.3628198334</v>
       </c>
     </row>
     <row r="5">
@@ -6355,28 +6355,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.1164680867544</v>
+        <v>161.5292954416288</v>
       </c>
       <c r="AB5" t="n">
-        <v>157.5074302163733</v>
+        <v>221.011508192712</v>
       </c>
       <c r="AC5" t="n">
-        <v>142.4751421396326</v>
+        <v>199.9184800424629</v>
       </c>
       <c r="AD5" t="n">
-        <v>115116.4680867544</v>
+        <v>161529.2954416288</v>
       </c>
       <c r="AE5" t="n">
-        <v>157507.4302163733</v>
+        <v>221011.508192712</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.659986633934535e-06</v>
+        <v>5.114364497117439e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.963541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>142475.1421396326</v>
+        <v>199918.4800424629</v>
       </c>
     </row>
   </sheetData>
@@ -6652,28 +6652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.1775038953126</v>
+        <v>251.4636743067695</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.996424388294</v>
+        <v>344.0636929807104</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.4648358151889</v>
+        <v>311.2267370191599</v>
       </c>
       <c r="AD2" t="n">
-        <v>203177.5038953125</v>
+        <v>251463.6743067695</v>
       </c>
       <c r="AE2" t="n">
-        <v>277996.424388294</v>
+        <v>344063.6929807104</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.862578607853584e-06</v>
+        <v>3.469842676503964e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.22265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>251464.8358151889</v>
+        <v>311226.7370191599</v>
       </c>
     </row>
     <row r="3">
@@ -6758,28 +6758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.3214426077128</v>
+        <v>198.6075235106187</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.6764294897857</v>
+        <v>271.7435756126536</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.0469597280209</v>
+        <v>245.8087501507653</v>
       </c>
       <c r="AD3" t="n">
-        <v>150321.4426077128</v>
+        <v>198607.5235106187</v>
       </c>
       <c r="AE3" t="n">
-        <v>205676.4294897857</v>
+        <v>271743.5756126536</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.290695938313185e-06</v>
+        <v>4.267392791981531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.686197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>186046.9597280209</v>
+        <v>245808.7501507653</v>
       </c>
     </row>
     <row r="4">
@@ -6864,28 +6864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>140.5293109753715</v>
+        <v>176.7226259474591</v>
       </c>
       <c r="AB4" t="n">
-        <v>192.2784029920644</v>
+        <v>241.7996932732143</v>
       </c>
       <c r="AC4" t="n">
-        <v>173.9276220749896</v>
+        <v>218.7226699152897</v>
       </c>
       <c r="AD4" t="n">
-        <v>140529.3109753715</v>
+        <v>176722.6259474591</v>
       </c>
       <c r="AE4" t="n">
-        <v>192278.4029920644</v>
+        <v>241799.6932732143</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.456663164575112e-06</v>
+        <v>4.576577146486849e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.236979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>173927.6220749896</v>
+        <v>218722.6699152897</v>
       </c>
     </row>
     <row r="5">
@@ -6970,28 +6970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>135.4575007790789</v>
+        <v>171.6508157511665</v>
       </c>
       <c r="AB5" t="n">
-        <v>185.3389285290261</v>
+        <v>234.8602188101761</v>
       </c>
       <c r="AC5" t="n">
-        <v>167.6504413150879</v>
+        <v>212.4454891553881</v>
       </c>
       <c r="AD5" t="n">
-        <v>135457.500779079</v>
+        <v>171650.8157511665</v>
       </c>
       <c r="AE5" t="n">
-        <v>185338.9285290261</v>
+        <v>234860.2188101761</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.532470706822905e-06</v>
+        <v>4.717800847963476e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.048177083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>167650.4413150879</v>
+        <v>212445.4891553881</v>
       </c>
     </row>
     <row r="6">
@@ -7076,28 +7076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>135.5888329672909</v>
+        <v>171.7821479393785</v>
       </c>
       <c r="AB6" t="n">
-        <v>185.5186230229048</v>
+        <v>235.0399133040547</v>
       </c>
       <c r="AC6" t="n">
-        <v>167.8129860186737</v>
+        <v>212.6080338589738</v>
       </c>
       <c r="AD6" t="n">
-        <v>135588.8329672909</v>
+        <v>171782.1479393785</v>
       </c>
       <c r="AE6" t="n">
-        <v>185518.6230229049</v>
+        <v>235039.9133040548</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.531953088595266e-06</v>
+        <v>4.716836564464877e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.048177083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>167812.9860186737</v>
+        <v>212608.0338589739</v>
       </c>
     </row>
   </sheetData>
@@ -7373,28 +7373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.5820760053026</v>
+        <v>173.9786691071665</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.2999131481021</v>
+        <v>238.0452904694957</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.3786582792877</v>
+        <v>215.3265820458194</v>
       </c>
       <c r="AD2" t="n">
-        <v>129582.0760053025</v>
+        <v>173978.6691071665</v>
       </c>
       <c r="AE2" t="n">
-        <v>177299.9131481021</v>
+        <v>238045.2904694957</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.503712772105218e-06</v>
+        <v>5.018685629275393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.62109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>160378.6582792877</v>
+        <v>215326.5820458194</v>
       </c>
     </row>
     <row r="3">
@@ -7479,28 +7479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.6854605350932</v>
+        <v>150.9967127823855</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.9717537343939</v>
+        <v>206.60036393359</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.0404144306661</v>
+        <v>186.8827151652589</v>
       </c>
       <c r="AD3" t="n">
-        <v>106685.4605350932</v>
+        <v>150996.7127823855</v>
       </c>
       <c r="AE3" t="n">
-        <v>145971.7537343939</v>
+        <v>206600.3639335899</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.783857366818575e-06</v>
+        <v>5.580234728385882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.950520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>132040.4144306661</v>
+        <v>186882.7151652589</v>
       </c>
     </row>
   </sheetData>
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.425019092535</v>
+        <v>144.2755147671301</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.8248709641348</v>
+        <v>197.404124290793</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.1440411739221</v>
+        <v>178.5641517269642</v>
       </c>
       <c r="AD2" t="n">
-        <v>112425.019092535</v>
+        <v>144275.5147671301</v>
       </c>
       <c r="AE2" t="n">
-        <v>153824.8709641348</v>
+        <v>197404.124290793</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.827127484669947e-06</v>
+        <v>5.914527500593334e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.106770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>139144.0411739222</v>
+        <v>178564.1517269642</v>
       </c>
     </row>
     <row r="3">
@@ -7882,28 +7882,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.93960481041681</v>
+        <v>142.3499191287612</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.7417763257458</v>
+        <v>194.7694393870939</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.6913331115417</v>
+        <v>176.1809174526698</v>
       </c>
       <c r="AD3" t="n">
-        <v>99939.60481041681</v>
+        <v>142349.9191287612</v>
       </c>
       <c r="AE3" t="n">
-        <v>136741.7763257458</v>
+        <v>194769.4393870939</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.881561606985587e-06</v>
+        <v>6.028407088674273e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>123691.3331115417</v>
+        <v>176180.9174526698</v>
       </c>
     </row>
   </sheetData>
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.9520897449116</v>
+        <v>135.6629940075725</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.6000793483464</v>
+        <v>185.6200934299724</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.8950893193563</v>
+        <v>167.9047722325053</v>
       </c>
       <c r="AD2" t="n">
-        <v>104952.0897449116</v>
+        <v>135662.9940075725</v>
       </c>
       <c r="AE2" t="n">
-        <v>143600.0793483465</v>
+        <v>185620.0934299724</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.937232362854066e-06</v>
+        <v>6.385119519400502e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.080729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>129895.0893193563</v>
+        <v>167904.7722325053</v>
       </c>
     </row>
   </sheetData>
@@ -13697,28 +13697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.51809848665341</v>
+        <v>133.4822669962436</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.6920763104836</v>
+        <v>182.6363265261877</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.2190079749269</v>
+        <v>165.2057718542738</v>
       </c>
       <c r="AD2" t="n">
-        <v>95518.09848665341</v>
+        <v>133482.2669962436</v>
       </c>
       <c r="AE2" t="n">
-        <v>130692.0763104836</v>
+        <v>182636.3265261877</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.864666620022571e-06</v>
+        <v>6.813686797228172e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>118219.0079749269</v>
+        <v>165205.7718542738</v>
       </c>
     </row>
   </sheetData>
@@ -13994,28 +13994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.9434108993181</v>
+        <v>193.5132693113294</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.4733868807497</v>
+        <v>264.7733922745558</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.7180320627288</v>
+        <v>239.5037913277396</v>
       </c>
       <c r="AD2" t="n">
-        <v>158943.4108993181</v>
+        <v>193513.2693113294</v>
       </c>
       <c r="AE2" t="n">
-        <v>217473.3868807497</v>
+        <v>264773.3922745558</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.226581230768793e-06</v>
+        <v>4.320854985800286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.200520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>196718.0320627288</v>
+        <v>239503.7913277396</v>
       </c>
     </row>
     <row r="3">
@@ -14100,28 +14100,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.3527062920449</v>
+        <v>162.8372238494846</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.6178352704599</v>
+        <v>222.8010735420684</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.857115553476</v>
+        <v>201.5372517865481</v>
       </c>
       <c r="AD3" t="n">
-        <v>128352.7062920449</v>
+        <v>162837.2238494846</v>
       </c>
       <c r="AE3" t="n">
-        <v>175617.8352704599</v>
+        <v>222801.0735420684</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.617361119049473e-06</v>
+        <v>5.079193916037766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.126302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>158857.115553476</v>
+        <v>201537.2517865481</v>
       </c>
     </row>
     <row r="4">
@@ -14206,28 +14206,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.0196618690291</v>
+        <v>158.9420053644995</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.6384874447213</v>
+        <v>217.471463766003</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.8800072395197</v>
+        <v>196.7162924873544</v>
       </c>
       <c r="AD4" t="n">
-        <v>113019.661869029</v>
+        <v>158942.0053644995</v>
       </c>
       <c r="AE4" t="n">
-        <v>154638.4874447213</v>
+        <v>217471.463766003</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.69461603553815e-06</v>
+        <v>5.22911312243134e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.950520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>139880.0072395197</v>
+        <v>196716.2924873544</v>
       </c>
     </row>
   </sheetData>
@@ -14503,28 +14503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.4794033068666</v>
+        <v>245.3414747773432</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.2000317807299</v>
+        <v>335.6870294921725</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.4125199757825</v>
+        <v>303.6495305372444</v>
       </c>
       <c r="AD2" t="n">
-        <v>197479.4033068666</v>
+        <v>245341.4747773432</v>
       </c>
       <c r="AE2" t="n">
-        <v>270200.0317807299</v>
+        <v>335687.0294921725</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.916124174646314e-06</v>
+        <v>3.595400511573468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.059895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>244412.5199757825</v>
+        <v>303649.5305372444</v>
       </c>
     </row>
     <row r="3">
@@ -14609,28 +14609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.0875487956485</v>
+        <v>182.133381762593</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.8834291899099</v>
+        <v>249.2029280851764</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.8068352462365</v>
+        <v>225.4193503873059</v>
       </c>
       <c r="AD3" t="n">
-        <v>146087.5487956485</v>
+        <v>182133.3817625931</v>
       </c>
       <c r="AE3" t="n">
-        <v>199883.4291899099</v>
+        <v>249202.9280851764</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.346758658825442e-06</v>
+        <v>4.403439711331807e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.58203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>180806.8352462365</v>
+        <v>225419.3503873059</v>
       </c>
     </row>
     <row r="4">
@@ -14715,28 +14715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.6972631797953</v>
+        <v>172.5725039461477</v>
       </c>
       <c r="AB4" t="n">
-        <v>187.0352261401424</v>
+        <v>236.1213132605619</v>
       </c>
       <c r="AC4" t="n">
-        <v>169.1848466629684</v>
+        <v>213.5862265213868</v>
       </c>
       <c r="AD4" t="n">
-        <v>136697.2631797953</v>
+        <v>172572.5039461477</v>
       </c>
       <c r="AE4" t="n">
-        <v>187035.2261401424</v>
+        <v>236121.313260562</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.514509674560933e-06</v>
+        <v>4.718206413705718e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.139322916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>169184.8466629684</v>
+        <v>213586.2265213868</v>
       </c>
     </row>
     <row r="5">
@@ -14821,28 +14821,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.8576097294299</v>
+        <v>168.7328504957822</v>
       </c>
       <c r="AB5" t="n">
-        <v>181.7816428958</v>
+        <v>230.8677300162197</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.432658030014</v>
+        <v>208.8340378884324</v>
       </c>
       <c r="AD5" t="n">
-        <v>132857.6097294299</v>
+        <v>168732.8504957822</v>
       </c>
       <c r="AE5" t="n">
-        <v>181781.6428958</v>
+        <v>230867.7300162197</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.571375631952812e-06</v>
+        <v>4.824909254264375e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.009114583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>164432.658030014</v>
+        <v>208834.0378884324</v>
       </c>
     </row>
   </sheetData>
@@ -15118,28 +15118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.131016008056</v>
+        <v>137.6011956603968</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.3719176877073</v>
+        <v>188.2720264387873</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.1658960698359</v>
+        <v>170.3036084769712</v>
       </c>
       <c r="AD2" t="n">
-        <v>101131.016008056</v>
+        <v>137601.1956603968</v>
       </c>
       <c r="AE2" t="n">
-        <v>138371.9176877073</v>
+        <v>188272.0264387873</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.649856410153282e-06</v>
+        <v>6.627089785431411e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.486979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>125165.8960698359</v>
+        <v>170303.6084769712</v>
       </c>
     </row>
   </sheetData>
@@ -15415,28 +15415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.2861508005886</v>
+        <v>150.6427403775963</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.8443299419713</v>
+        <v>206.1160432731972</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.3981342422979</v>
+        <v>186.4446173889457</v>
       </c>
       <c r="AD2" t="n">
-        <v>118286.1508005886</v>
+        <v>150642.7403775963</v>
       </c>
       <c r="AE2" t="n">
-        <v>161844.3299419713</v>
+        <v>206116.0432731973</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.710122562389866e-06</v>
+        <v>5.580910562204979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>146398.1342422978</v>
+        <v>186444.6173889457</v>
       </c>
     </row>
     <row r="3">
@@ -15521,28 +15521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.0042121590542</v>
+        <v>145.0893183472821</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.566663184198</v>
+        <v>198.5176062516364</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.2466167329777</v>
+        <v>179.5713645322468</v>
       </c>
       <c r="AD3" t="n">
-        <v>102004.2121590542</v>
+        <v>145089.3183472821</v>
       </c>
       <c r="AE3" t="n">
-        <v>139566.663184198</v>
+        <v>198517.6062516364</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.860384455436905e-06</v>
+        <v>5.890342392942417e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.944010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>126246.6167329777</v>
+        <v>179571.3645322468</v>
       </c>
     </row>
   </sheetData>
@@ -15818,28 +15818,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.6949198006786</v>
+        <v>180.6548082612006</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.6637757085666</v>
+        <v>247.1798785905131</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.944285535739</v>
+        <v>223.5893778970448</v>
       </c>
       <c r="AD2" t="n">
-        <v>135694.9198006786</v>
+        <v>180654.8082612006</v>
       </c>
       <c r="AE2" t="n">
-        <v>185663.7757085666</v>
+        <v>247179.8785905131</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.399142198478871e-06</v>
+        <v>4.753142405534061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.829427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>167944.285535739</v>
+        <v>223589.3778970448</v>
       </c>
     </row>
     <row r="3">
@@ -15924,28 +15924,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.1064447674009</v>
+        <v>153.9809923733513</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.2842511673221</v>
+        <v>210.6835869270709</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.0367717577159</v>
+        <v>190.5762410870828</v>
       </c>
       <c r="AD3" t="n">
-        <v>109106.4447674009</v>
+        <v>153980.9923733513</v>
       </c>
       <c r="AE3" t="n">
-        <v>149284.2511673221</v>
+        <v>210683.5869270709</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.746239502243198e-06</v>
+        <v>5.440806068994604e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.963541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>135036.7717577159</v>
+        <v>190576.2410870829</v>
       </c>
     </row>
     <row r="4">
@@ -16030,28 +16030,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.9995335941681</v>
+        <v>153.8740812001185</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.137970583517</v>
+        <v>210.5373063432659</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.9044519875231</v>
+        <v>190.44392131689</v>
       </c>
       <c r="AD4" t="n">
-        <v>108999.5335941681</v>
+        <v>153874.0812001185</v>
       </c>
       <c r="AE4" t="n">
-        <v>149137.970583517</v>
+        <v>210537.3063432659</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.753333388289113e-06</v>
+        <v>5.454860363319569e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.950520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>134904.4519875231</v>
+        <v>190443.92131689</v>
       </c>
     </row>
   </sheetData>
